--- a/DispatcherDuProject/Data/Config.xlsx
+++ b/DispatcherDuProject/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\UiPath\LinkedIn Projects\ReceiveDocumentsByEmail\DispatcherDuProject\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\UiPath\LinkedIn Projects\Mail Doc Processor Document Understanding\DispatcherDuProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF139291-94F2-41EC-A13D-C3CF47446E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CED0C1D-09E6-45DC-8A9A-C1028D1E0906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="2895" windowWidth="21585" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -167,10 +167,10 @@
     <t>OrchestratorQueueName</t>
   </si>
   <si>
-    <t>C:\Users\DELL\Documents\UiPath\LinkedIn Projects\ReceiveDocumentsByEmail\FilesInput</t>
-  </si>
-  <si>
     <t>DU_ActionCatalogName</t>
+  </si>
+  <si>
+    <t>C:\Users\DELL\Documents\UiPath\LinkedIn Projects\Mail Doc Processor Document Understanding\FilesInput</t>
   </si>
 </sst>
 </file>
@@ -222,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -232,7 +232,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -634,15 +633,15 @@
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1635,7 +1634,6 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1648,7 +1646,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2811,7 +2809,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/DispatcherDuProject/Data/Config.xlsx
+++ b/DispatcherDuProject/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\UiPath\LinkedIn Projects\Mail Doc Processor Document Understanding\DispatcherDuProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CED0C1D-09E6-45DC-8A9A-C1028D1E0906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853C1320-D75E-4651-BA8F-5EE5886458C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2895" yWindow="2895" windowWidth="21585" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>OrchestratorQueueName</t>
-  </si>
-  <si>
-    <t>DU_ActionCatalogName</t>
   </si>
   <si>
     <t>C:\Users\DELL\Documents\UiPath\LinkedIn Projects\Mail Doc Processor Document Understanding\FilesInput</t>
@@ -546,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -633,17 +630,10 @@
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1633,7 +1623,6 @@
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DispatcherDuProject/Data/Config.xlsx
+++ b/DispatcherDuProject/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\UiPath\LinkedIn Projects\Mail Doc Processor Document Understanding\DispatcherDuProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853C1320-D75E-4651-BA8F-5EE5886458C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B66645-E087-499F-82E6-F29AA3FCD6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="2895" windowWidth="21585" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>C:\Users\DELL\Documents\UiPath\LinkedIn Projects\Mail Doc Processor Document Understanding\FilesInput</t>
+  </si>
+  <si>
+    <t>Input Files previously downloaded from Outlook</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -631,6 +634,9 @@
       </c>
       <c r="B6" t="s">
         <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
